--- a/StructureDefinition-ext-R5-ArtifactAssessment.xlsx
+++ b/StructureDefinition-ext-R5-ArtifactAssessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-ext-R5-ArtifactAssessment.xlsx
+++ b/StructureDefinition-ext-R5-ArtifactAssessment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1885" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3524" uniqueCount="339">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -385,6 +385,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.title</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -428,6 +431,9 @@
     <t>Extension.extension:citeAs.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.citeAs</t>
+  </si>
+  <si>
     <t>Extension.extension:citeAs.value[x]</t>
   </si>
   <si>
@@ -462,6 +468,9 @@
     <t>Extension.extension:date.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.date</t>
+  </si>
+  <si>
     <t>Extension.extension:date.value[x]</t>
   </si>
   <si>
@@ -493,6 +502,9 @@
     <t>Extension.extension:copyright.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.copyright</t>
+  </si>
+  <si>
     <t>Extension.extension:copyright.value[x]</t>
   </si>
   <si>
@@ -527,6 +539,9 @@
     <t>Extension.extension:approvalDate.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.approvalDate</t>
+  </si>
+  <si>
     <t>Extension.extension:approvalDate.value[x]</t>
   </si>
   <si>
@@ -561,6 +576,9 @@
     <t>Extension.extension:lastReviewDate.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.lastReviewDate</t>
+  </si>
+  <si>
     <t>Extension.extension:lastReviewDate.value[x]</t>
   </si>
   <si>
@@ -586,6 +604,9 @@
   </si>
   <si>
     <t>Extension.extension:artifact.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.artifact</t>
   </si>
   <si>
     <t>Extension.extension:artifact.value[x]</t>
@@ -616,13 +637,352 @@
     <t>Extension.extension:content.extension</t>
   </si>
   <si>
-    <t>Extension.extension:content.url</t>
+    <t>Extension.extension:content.extension:informationType</t>
+  </si>
+  <si>
+    <t>informationType</t>
+  </si>
+  <si>
+    <t>comment | classifier | rating | container | response | change-request</t>
+  </si>
+  <si>
+    <t>The type of information this component of the content represents.</t>
+  </si>
+  <si>
+    <t>Element `ArtifactAssessment.content.informationType` is not mapped to FHIR R4, since FHIR R5 `ArtifactAssessment` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:informationType.id</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:informationType.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:informationType.url</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content.informationType</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:informationType.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:summary</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>Brief summary of the content</t>
+  </si>
+  <si>
+    <t>A brief summary of the content of this component.</t>
+  </si>
+  <si>
+    <t>Element `ArtifactAssessment.content.summary` is not mapped to FHIR R4, since FHIR R5 `ArtifactAssessment` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:summary.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:summary.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:summary.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content.summary</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:summary.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>What type of content</t>
+  </si>
+  <si>
+    <t>Indicates what type of content this component represents.</t>
+  </si>
+  <si>
+    <t>Element `ArtifactAssessment.content.type` is not mapped to FHIR R4, since FHIR R5 `ArtifactAssessment` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:type.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:type.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:type.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content.type</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:type.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-certainty-type-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:classifier</t>
+  </si>
+  <si>
+    <t>classifier</t>
+  </si>
+  <si>
+    <t>Rating, classifier, or assessment</t>
+  </si>
+  <si>
+    <t>Represents a rating, classifier, or assessment of the artifact.</t>
+  </si>
+  <si>
+    <t>Element `ArtifactAssessment.content.classifier` is not mapped to FHIR R4, since FHIR R5 `ArtifactAssessment` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:classifier.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:classifier.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:classifier.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content.classifier</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:classifier.value[x]</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-certainty-rating-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:quantity</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>Quantitative rating</t>
+  </si>
+  <si>
+    <t>A quantitative rating of the artifact.</t>
+  </si>
+  <si>
+    <t>Element `ArtifactAssessment.content.quantity` is not mapped to FHIR R4, since FHIR R5 `ArtifactAssessment` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:quantity.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:quantity.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:quantity.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content.quantity</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:quantity.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:author</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>Who authored the content</t>
+  </si>
+  <si>
+    <t>Indicates who or what authored the content.</t>
+  </si>
+  <si>
+    <t>Element `ArtifactAssessment.content.author` is not mapped to FHIR R4, since FHIR R5 `ArtifactAssessment` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:author.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:author.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:author.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content.author</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:author.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:path</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>What the comment is directed to</t>
+  </si>
+  <si>
+    <t>A URI that points to what the comment is about, such as a line of text in the CQL, or a specific element in a resource.</t>
+  </si>
+  <si>
+    <t>The target element is used to point the comment to aspect of the artifact, such as a text range within a CQL library (e.g. #content?0:0-120:80).</t>
+  </si>
+  <si>
+    <t>Element `ArtifactAssessment.content.path` is not mapped to FHIR R4, since FHIR R5 `ArtifactAssessment` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:path.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:path.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:path.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content.path</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:path.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:relatedArtifact</t>
+  </si>
+  <si>
+    <t>relatedArtifact</t>
+  </si>
+  <si>
+    <t>Additional information</t>
+  </si>
+  <si>
+    <t>Additional related artifacts that provide supporting documentation, additional evidence, or further information related to the content.</t>
+  </si>
+  <si>
+    <t>Element `ArtifactAssessment.content.relatedArtifact` is not mapped to FHIR R4, since FHIR R5 `ArtifactAssessment` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:relatedArtifact.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:relatedArtifact.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:relatedArtifact.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content.relatedArtifact</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:relatedArtifact.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RelatedArtifact
+</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:freeToShare</t>
+  </si>
+  <si>
+    <t>freeToShare</t>
+  </si>
+  <si>
+    <t>Acceptable to publicly share the resource content</t>
+  </si>
+  <si>
+    <t>Acceptable to publicly share the comment, classifier or rating.</t>
+  </si>
+  <si>
+    <t>Element `ArtifactAssessment.content.freeToShare` is not mapped to FHIR R4, since FHIR R5 `ArtifactAssessment` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:freeToShare.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:freeToShare.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:freeToShare.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content.freeToShare</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:freeToShare.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:component</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>Contained content</t>
+  </si>
+  <si>
+    <t>If the informationType is container, the components of the content.</t>
+  </si>
+  <si>
+    <t>Element `ArtifactAssessment.content.component` is not mapped to FHIR R4, since FHIR R5 `ArtifactAssessment` is not mapped.</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:component.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:component.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.extension:component.url</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.content</t>
   </si>
   <si>
-    <t>Extension.extension:content.value[x]</t>
+    <t>Extension.extension:content.extension:component.value[x]</t>
   </si>
   <si>
     <t>base64Binary
@@ -635,6 +995,12 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
+    <t>Extension.extension:content.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:content.value[x]</t>
+  </si>
+  <si>
     <t>Extension.extension:workflowStatus</t>
   </si>
   <si>
@@ -659,13 +1025,12 @@
     <t>Extension.extension:workflowStatus.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.workflowStatus</t>
+  </si>
+  <si>
     <t>Extension.extension:workflowStatus.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
     <t>Extension.extension:disposition</t>
   </si>
   <si>
@@ -688,6 +1053,9 @@
   </si>
   <si>
     <t>Extension.extension:disposition.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ArtifactAssessment.disposition</t>
   </si>
   <si>
     <t>Extension.extension:disposition.value[x]</t>
@@ -1007,7 +1375,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK56"/>
+  <dimension ref="A1:AK106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1016,9 +1384,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.41015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="54.38671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.67578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.3359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="11.10546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1041,7 +1409,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="70.2890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1836,7 +2204,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1878,7 +2246,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1893,15 +2261,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1981,7 +2349,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1993,21 +2361,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2032,14 +2400,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2108,7 +2476,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2211,7 +2579,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2316,7 +2684,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2359,7 +2727,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2401,7 +2769,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2416,15 +2784,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2447,13 +2815,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2504,7 +2872,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2516,21 +2884,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2555,16 +2923,16 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2633,7 +3001,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2736,7 +3104,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2841,7 +3209,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2884,7 +3252,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2926,7 +3294,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -2941,15 +3309,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2972,16 +3340,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3031,7 +3399,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3043,21 +3411,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3082,14 +3450,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3158,7 +3526,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3261,7 +3629,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3366,7 +3734,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3409,7 +3777,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3451,7 +3819,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -3466,15 +3834,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3497,13 +3865,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3554,7 +3922,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3566,21 +3934,21 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3605,16 +3973,16 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3683,7 +4051,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -3786,7 +4154,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -3891,7 +4259,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -3934,7 +4302,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3976,7 +4344,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
@@ -3991,15 +4359,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4022,16 +4390,16 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4081,7 +4449,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4093,21 +4461,21 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4132,16 +4500,16 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4210,7 +4578,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4313,7 +4681,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4418,7 +4786,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4461,7 +4829,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4503,7 +4871,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -4518,15 +4886,15 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4549,16 +4917,16 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -4608,7 +4976,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -4620,21 +4988,21 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4659,14 +5027,14 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4735,7 +5103,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -4838,7 +5206,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -4943,7 +5311,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -4986,7 +5354,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5028,7 +5396,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
@@ -5043,15 +5411,15 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5074,13 +5442,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5131,7 +5499,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5143,21 +5511,21 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5182,14 +5550,14 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5258,7 +5626,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>105</v>
@@ -5361,14 +5729,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -5390,14 +5758,12 @@
         <v>93</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -5461,23 +5827,25 @@
         <v>84</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>86</v>
@@ -5492,24 +5860,24 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -5551,30 +5919,30 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5585,7 +5953,7 @@
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -5597,13 +5965,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>196</v>
+        <v>87</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>197</v>
+        <v>88</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>198</v>
+        <v>89</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5654,7 +6022,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -5666,31 +6034,29 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -5705,15 +6071,15 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -5749,16 +6115,16 @@
         <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>98</v>
@@ -5776,15 +6142,15 @@
         <v>84</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5792,7 +6158,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>86</v>
@@ -5807,22 +6173,24 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -5864,10 +6232,10 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>86</v>
@@ -5879,26 +6247,26 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -5910,17 +6278,15 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -5957,50 +6323,52 @@
         <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>86</v>
@@ -6015,24 +6383,24 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -6074,30 +6442,30 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6120,13 +6488,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>208</v>
+        <v>87</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6177,7 +6545,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -6189,31 +6557,29 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -6228,15 +6594,15 @@
         <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>211</v>
+        <v>109</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -6272,16 +6638,16 @@
         <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>98</v>
@@ -6299,15 +6665,15 @@
         <v>84</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6315,7 +6681,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>86</v>
@@ -6330,22 +6696,24 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6387,10 +6755,10 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>86</v>
@@ -6402,26 +6770,26 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -6433,17 +6801,15 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -6480,50 +6846,52 @@
         <v>77</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>86</v>
@@ -6538,24 +6906,24 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>115</v>
+        <v>227</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>210</v>
+        <v>77</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -6597,30 +6965,30 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6643,13 +7011,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>208</v>
+        <v>87</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>211</v>
+        <v>88</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>212</v>
+        <v>89</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6700,7 +7068,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -6712,29 +7080,29 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -6746,16 +7114,16 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -6763,7 +7131,7 @@
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="S55" t="s" s="2">
         <v>77</v>
@@ -6793,42 +7161,42 @@
         <v>77</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>122</v>
+        <v>210</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -6836,10 +7204,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -6851,22 +7219,24 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>197</v>
+        <v>115</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -6908,22 +7278,5248 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="Y57" s="2"/>
+      <c r="Z57" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="P58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="Y62" s="2"/>
+      <c r="Z62" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="D68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="P78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O80" s="2"/>
+      <c r="P80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="D83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="P83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="D88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B94" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="AG56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF94" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="AK56" t="s" s="2">
+      <c r="AG94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="D95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF98" t="s" s="2">
         <v>119</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="D100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="P100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-ArtifactAssessment.xlsx
+++ b/StructureDefinition-ext-R5-ArtifactAssessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -437,7 +437,7 @@
     <t>Extension.extension:citeAs.value[x]</t>
   </si>
   <si>
-    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Citation|0.0.1-snapshot-3|Basic|4.0.1)
+    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Citation|Basic)
 markdown</t>
   </si>
   <si>
@@ -612,7 +612,7 @@
     <t>Extension.extension:artifact.value[x]</t>
   </si>
   <si>
-    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
+    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
 canonicaluri</t>
   </si>
   <si>
@@ -750,7 +750,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-certainty-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-certainty-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:content.extension:classifier</t>
@@ -783,7 +783,7 @@
     <t>Extension.extension:content.extension:classifier.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-certainty-rating-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-certainty-rating-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:content.extension:quantity</t>
@@ -850,7 +850,7 @@
     <t>Extension.extension:content.extension:author.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device)
 </t>
   </si>
   <si>
@@ -1409,7 +1409,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.2890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.79296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-ArtifactAssessment.xlsx
+++ b/StructureDefinition-ext-R5-ArtifactAssessment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3524" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3521" uniqueCount="343">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -437,7 +437,7 @@
     <t>Extension.extension:citeAs.value[x]</t>
   </si>
   <si>
-    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Citation|Basic)
+    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Citation|0.0.1-snapshot-3|Basic|4.0.1)
 markdown</t>
   </si>
   <si>
@@ -612,7 +612,7 @@
     <t>Extension.extension:artifact.value[x]</t>
   </si>
   <si>
-    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
+    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
 canonicaluri</t>
   </si>
   <si>
@@ -683,6 +683,12 @@
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-artifactassessment-information-type-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:content.extension:summary</t>
   </si>
   <si>
@@ -750,7 +756,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-certainty-type-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-certainty-type-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:content.extension:classifier</t>
@@ -783,7 +789,7 @@
     <t>Extension.extension:content.extension:classifier.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-certainty-rating-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-certainty-rating-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:content.extension:quantity</t>
@@ -850,7 +856,7 @@
     <t>Extension.extension:content.extension:author.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1)
 </t>
   </si>
   <si>
@@ -1031,6 +1037,9 @@
     <t>Extension.extension:workflowStatus.value[x]</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-artifactassessment-workflow-status-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:disposition</t>
   </si>
   <si>
@@ -1059,6 +1068,9 @@
   </si>
   <si>
     <t>Extension.extension:disposition.value[x]</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-artifactassessment-disposition-for-R4|0.0.1-snapshot-3</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1421,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.79296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="83.10546875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -6311,13 +6323,11 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -6355,13 +6365,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6386,14 +6396,14 @@
         <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6462,7 +6472,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>206</v>
@@ -6565,7 +6575,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>208</v>
@@ -6670,7 +6680,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>210</v>
@@ -6713,7 +6723,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6775,7 +6785,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>213</v>
@@ -6804,10 +6814,10 @@
         <v>158</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6878,13 +6888,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -6909,14 +6919,14 @@
         <v>93</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -6985,7 +6995,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>206</v>
@@ -7088,7 +7098,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>208</v>
@@ -7193,7 +7203,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>210</v>
@@ -7236,7 +7246,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7298,7 +7308,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>213</v>
@@ -7324,13 +7334,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7357,11 +7367,11 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Y57" s="2"/>
       <c r="Z57" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
@@ -7399,13 +7409,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7430,14 +7440,14 @@
         <v>93</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7506,7 +7516,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>206</v>
@@ -7609,7 +7619,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>208</v>
@@ -7714,7 +7724,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>210</v>
@@ -7757,7 +7767,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -7819,7 +7829,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>213</v>
@@ -7845,13 +7855,13 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -7878,11 +7888,11 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -7920,13 +7930,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -7951,14 +7961,14 @@
         <v>93</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8027,7 +8037,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>206</v>
@@ -8130,7 +8140,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>208</v>
@@ -8235,7 +8245,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>210</v>
@@ -8278,7 +8288,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8340,7 +8350,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>213</v>
@@ -8366,13 +8376,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8443,13 +8453,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
@@ -8474,14 +8484,14 @@
         <v>93</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -8550,7 +8560,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>206</v>
@@ -8653,7 +8663,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>208</v>
@@ -8758,7 +8768,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>210</v>
@@ -8801,7 +8811,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -8863,7 +8873,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>213</v>
@@ -8889,13 +8899,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -8966,13 +8976,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -8997,16 +9007,16 @@
         <v>93</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -9075,7 +9085,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>206</v>
@@ -9178,7 +9188,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>208</v>
@@ -9283,7 +9293,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>210</v>
@@ -9326,7 +9336,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -9388,7 +9398,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>213</v>
@@ -9417,13 +9427,13 @@
         <v>114</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -9493,13 +9503,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -9524,14 +9534,14 @@
         <v>93</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -9600,7 +9610,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>206</v>
@@ -9703,7 +9713,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>208</v>
@@ -9808,7 +9818,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>210</v>
@@ -9851,7 +9861,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -9913,7 +9923,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>213</v>
@@ -9939,13 +9949,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10016,13 +10026,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -10047,14 +10057,14 @@
         <v>93</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10123,7 +10133,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>206</v>
@@ -10226,7 +10236,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>208</v>
@@ -10331,7 +10341,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>210</v>
@@ -10374,7 +10384,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10436,7 +10446,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>213</v>
@@ -10462,13 +10472,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10539,13 +10549,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -10570,14 +10580,14 @@
         <v>93</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -10646,7 +10656,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>206</v>
@@ -10749,7 +10759,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>208</v>
@@ -10854,7 +10864,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>210</v>
@@ -10897,7 +10907,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -10959,7 +10969,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>213</v>
@@ -10985,13 +10995,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11062,7 +11072,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>113</v>
@@ -11105,7 +11115,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -11167,7 +11177,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>122</v>
@@ -11193,13 +11203,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11270,13 +11280,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -11301,14 +11311,14 @@
         <v>93</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -11377,7 +11387,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>105</v>
@@ -11480,7 +11490,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>107</v>
@@ -11585,7 +11595,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>113</v>
@@ -11628,7 +11638,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -11690,7 +11700,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>122</v>
@@ -11719,10 +11729,10 @@
         <v>214</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -11749,13 +11759,11 @@
         <v>77</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="Y99" s="2"/>
       <c r="Z99" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>77</v>
@@ -11793,13 +11801,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -11824,14 +11832,14 @@
         <v>93</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -11900,7 +11908,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>105</v>
@@ -12003,7 +12011,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>107</v>
@@ -12108,7 +12116,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>113</v>
@@ -12151,7 +12159,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>77</v>
@@ -12213,7 +12221,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>122</v>
@@ -12242,10 +12250,10 @@
         <v>214</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -12272,13 +12280,11 @@
         <v>77</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="Y104" s="2"/>
       <c r="Z104" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>77</v>
@@ -12447,13 +12453,13 @@
         <v>77</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
